--- a/teams2.xlsx
+++ b/teams2.xlsx
@@ -654,13 +654,13 @@
         <v>325053382</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -685,12 +685,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>потому что я участник, в игре то меня не будет</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Цска</t>
+          <t>Рубин</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Каарц</t>
+          <t>Осг</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>775314845</v>
+        <v>396309697</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -766,7 +766,9 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Россия</t>
@@ -778,11 +780,11 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2009</v>
+        <v>3009</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Алмаз</t>
+          <t>Осос</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>

--- a/teams2.xlsx
+++ b/teams2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>title</t>
   </si>
@@ -139,28 +139,40 @@
     <t>answer30</t>
   </si>
   <si>
-    <t>Дергунов Игорь</t>
-  </si>
-  <si>
-    <t>потому что я участник, в игре то меня не будет</t>
-  </si>
-  <si>
-    <t>Рубин</t>
-  </si>
-  <si>
-    <t>Осг</t>
-  </si>
-  <si>
-    <t>Гаврилов Евгений</t>
-  </si>
-  <si>
-    <t>Россия</t>
-  </si>
-  <si>
-    <t>Лужники</t>
-  </si>
-  <si>
-    <t>Осос</t>
+    <t>answer31</t>
+  </si>
+  <si>
+    <t>answer32</t>
+  </si>
+  <si>
+    <t>answer33</t>
+  </si>
+  <si>
+    <t>answer34</t>
+  </si>
+  <si>
+    <t>answer35</t>
+  </si>
+  <si>
+    <t>answer36</t>
+  </si>
+  <si>
+    <t>answer37</t>
+  </si>
+  <si>
+    <t>answer38</t>
+  </si>
+  <si>
+    <t>answer39</t>
+  </si>
+  <si>
+    <t>answer40</t>
+  </si>
+  <si>
+    <t>НГДУ «Прикамнефть»</t>
+  </si>
+  <si>
+    <t>НГДУ «Елховнефть»</t>
   </si>
 </sst>
 </file>
@@ -520,23 +532,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,19 +667,49 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>325053382</v>
+        <v>540668715</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -701,28 +738,16 @@
       <c r="M2">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2">
-        <v>2008</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>396309697</v>
+        <v>775314845</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -751,73 +776,25 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3">
-        <v>3009</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>396309697</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4">
-        <v>3009</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/teams2.xlsx
+++ b/teams2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ7"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,245 +447,270 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>point_win</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>point_weight</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>point0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>point_win0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>point_weight0</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>point1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>point_win1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>point_weight1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>point2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>point_win2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>point_weight2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>point3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>point_win3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>point_weight3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>answer1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>answer2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>answer3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>answer4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>answer5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>answer6</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>answer7</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>answer8</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>answer9</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>answer10</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>answer11</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>answer12</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>answer13</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>answer14</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>answer15</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>answer16</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>answer17</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>answer18</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>answer19</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>answer20</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>answer21</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>answer22</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>answer23</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>answer24</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>answer25</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>answer26</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>answer27</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>answer28</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>answer29</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>answer30</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>answer31</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>answer32</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>answer33</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>answer34</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>answer35</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>answer36</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>answer37</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>answer38</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>answer39</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>answer40</t>
         </is>
@@ -697,125 +722,126 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Банк Зенит</t>
+          <t>Игорь</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1175611292</v>
-      </c>
-      <c r="D2" t="n">
+        <v>325053382</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Баку</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Прораб</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>СССР</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Уголь</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
       </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Инженер</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Аптека</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Ussr</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Чехов</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Иран</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Енисей</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Хаос</t>
+          <t>Уголь</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Германия</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>ACDC</t>
-        </is>
-      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>Менделеев</t>
-        </is>
-      </c>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>Форд</t>
-        </is>
-      </c>
+      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Моторное масло</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>Пленные</t>
-        </is>
-      </c>
-      <c r="AQ2" t="n">
-        <v>159</v>
-      </c>
+          <t>Военные</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Бамбук</t>
+        </is>
+      </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -823,30 +849,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Центр технологического развития</t>
+          <t>Маша</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>316929849</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
+        <v>396309697</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -856,70 +878,64 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Чехов</t>
-        </is>
-      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>баку</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Иран</t>
+          <t>бар</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Енисей</t>
+          <t>США</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>качай нефть</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Венесуэлла</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Альметьевск</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Дух</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Тесла</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
           <t>США</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>jha</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>Пожарные</t>
-        </is>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
@@ -936,416 +952,11 @@
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>АО «ТАНЕКО» 1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>224608940</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>керосин</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>ленин</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>электричества</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>НГДУ «Прикамнефть»</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>645543451</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>венесуэла</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>США</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Дизель</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Геолог</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Хрущев</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>напряжения</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>торф</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>сурка</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>керосиновая лампа</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>Спасатели</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Канарейка</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Сланцевый газ</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>Фокс</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>дрова</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>женщины</t>
-        </is>
-      </c>
-      <c r="AQ5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ФГБОУ ВО «КНИТУ»</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>642105714</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Лена</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>УК ООО «ТМС групп»</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>527683727</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Мастер</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Аптека</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Китовый жир</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
